--- a/scripts/reporteador/Libro398.xlsx
+++ b/scripts/reporteador/Libro398.xlsx
@@ -92,7 +92,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -154,32 +154,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90"/>
     </xf>
@@ -197,25 +198,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -228,6 +217,33 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -512,337 +528,348 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J15"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4" style="21"/>
+    <col min="1" max="1" width="4" style="14"/>
     <col min="2" max="2" width="2.5703125" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="4" customWidth="1"/>
-    <col min="5" max="6" width="4" style="1" customWidth="1"/>
-    <col min="7" max="8" width="4" customWidth="1"/>
+    <col min="7" max="8" width="4" style="1" customWidth="1"/>
+    <col min="9" max="10" width="4" customWidth="1"/>
     <col min="11" max="11" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15">
+    <row r="1" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11">
         <v>0</v>
       </c>
-      <c r="B1" s="16">
+      <c r="B1" s="25">
         <v>1</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="18">
+      <c r="C1" s="26"/>
+      <c r="D1" s="12">
         <v>2</v>
       </c>
       <c r="E1" s="17">
         <v>3</v>
       </c>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="18">
+      <c r="F1" s="17">
+        <v>3</v>
+      </c>
+      <c r="G1" s="17">
+        <v>3</v>
+      </c>
+      <c r="H1" s="17">
+        <v>3</v>
+      </c>
+      <c r="I1" s="17">
+        <v>3</v>
+      </c>
+      <c r="J1" s="17">
+        <v>3</v>
+      </c>
+      <c r="K1" s="12">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15">
+    <row r="2" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11">
         <v>1</v>
       </c>
-      <c r="B2" s="18">
+      <c r="B2" s="12">
         <v>1</v>
       </c>
-      <c r="C2" s="18">
+      <c r="C2" s="12">
         <v>2</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="25">
+      <c r="E2" s="17">
         <v>0</v>
       </c>
-      <c r="F2" s="25">
+      <c r="F2" s="17">
         <v>0</v>
       </c>
-      <c r="G2" s="25">
-        <v>0</v>
-      </c>
-      <c r="H2" s="25">
-        <v>0</v>
+      <c r="G2" s="17">
+        <v>1</v>
+      </c>
+      <c r="H2" s="17">
+        <v>1</v>
       </c>
       <c r="I2" s="17">
         <v>1</v>
       </c>
-      <c r="J2" s="17"/>
-      <c r="K2" s="18"/>
+      <c r="J2" s="17">
+        <v>1</v>
+      </c>
+      <c r="K2" s="12"/>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15">
+      <c r="A3" s="11">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="22"/>
+      <c r="G3" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="J3" s="4"/>
-      <c r="K3" s="9" t="s">
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15">
+      <c r="A4" s="11">
         <v>3</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="3">
         <v>20</v>
       </c>
-      <c r="F4" s="5">
+      <c r="H4" s="3">
         <v>25</v>
       </c>
-      <c r="G4" s="3">
+      <c r="I4" s="2">
         <v>30</v>
       </c>
-      <c r="H4" s="3">
+      <c r="J4" s="2">
         <v>35</v>
       </c>
-      <c r="I4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K4" s="3"/>
+      <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15">
+      <c r="A5" s="11">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="12"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="20">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="24" t="s">
         <v>4</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="13">
+      <c r="D6" s="8"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="9">
         <v>100</v>
       </c>
-      <c r="F6" s="13"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="12"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="8"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="20"/>
-      <c r="B7" s="2"/>
+      <c r="B7" s="24"/>
       <c r="C7">
         <v>2</v>
       </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13">
+      <c r="D7" s="8"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9">
         <v>90</v>
       </c>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="12"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="8"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="20"/>
-      <c r="B8" s="2"/>
+      <c r="B8" s="24"/>
       <c r="C8">
         <v>3</v>
       </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="12"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="8"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="20"/>
-      <c r="B9" s="2"/>
+      <c r="B9" s="24"/>
       <c r="C9">
         <v>4</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="12"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="8"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="20"/>
-      <c r="B10" s="2"/>
+      <c r="B10" s="24"/>
       <c r="C10">
         <v>5</v>
       </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="12"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="8"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="20"/>
-      <c r="B11" s="2"/>
+      <c r="B11" s="24"/>
       <c r="C11">
         <v>6</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="12"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="8"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="20"/>
-      <c r="B12" s="2"/>
+      <c r="B12" s="24"/>
       <c r="C12">
         <v>7</v>
       </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="12"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="8"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="20"/>
-      <c r="B13" s="2"/>
+      <c r="B13" s="24"/>
       <c r="C13">
         <v>8</v>
       </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="12"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="8"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="20"/>
-      <c r="B14" s="2"/>
+      <c r="B14" s="24"/>
       <c r="C14">
         <v>9</v>
       </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="12"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="8"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="22"/>
-      <c r="B15" s="2"/>
+      <c r="A15" s="21"/>
+      <c r="B15" s="24"/>
       <c r="C15">
         <v>10</v>
       </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="12"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="8"/>
     </row>
     <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="15">
+      <c r="A16" s="11">
         <v>6</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="12"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="6">
+    <mergeCell ref="G3:J3"/>
     <mergeCell ref="A6:A15"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B6:B15"/>
     <mergeCell ref="B1:C1"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="E1:J1"/>
-    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="E3:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
